--- a/mouse-data/test-data.xlsx
+++ b/mouse-data/test-data.xlsx
@@ -1,237 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324" activeTab="2"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9324" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="体重记录" sheetId="1" r:id="rId1"/>
-    <sheet name="杀鼠表" sheetId="3" r:id="rId2"/>
-    <sheet name="粮食增减" sheetId="2" r:id="rId3"/>
+    <sheet name="体重记录" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="杀鼠表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="新增粮食" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="剩余粮食" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>mouse_108(/g)</t>
-  </si>
-  <si>
-    <t>mouse_109(/g)</t>
-  </si>
-  <si>
-    <t>mouse_110(/g)</t>
-  </si>
-  <si>
-    <t>mouseID</t>
-  </si>
-  <si>
-    <t>血液</t>
-  </si>
-  <si>
-    <t>肝脏</t>
-  </si>
-  <si>
-    <t>肠系膜</t>
-  </si>
-  <si>
-    <t>mouse108</t>
-  </si>
-  <si>
-    <t>mouse109</t>
-  </si>
-  <si>
-    <t>mouse110</t>
-  </si>
-  <si>
-    <t>cageID</t>
-  </si>
-  <si>
-    <t>cage_28</t>
-  </si>
-  <si>
-    <t>cage_29</t>
-  </si>
-  <si>
-    <t>cage_30</t>
-  </si>
-  <si>
-    <t>cage_31</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -423,12 +380,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,162 +501,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -738,19 +724,82 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -782,15 +831,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,132 +909,167 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -995,967 +1079,1671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11.8888888888889"/>
-    <col min="2" max="4" width="12.8888888888889"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>mouse_108</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>mouse_109</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>mouse_110</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
         <v>45200</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="5" t="n">
         <v>45201</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>45202</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>45203</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>45204</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="5" t="n">
         <v>45206</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>20.2</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>21.2</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>22.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="5" t="n">
         <v>45207</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>21.8285714285714</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>22.8285714285714</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>23.8285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="5" t="n">
         <v>45208</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>23.4571428571429</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>24.4571428571429</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>25.4571428571429</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="5" t="n">
         <v>45209</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>25.0857142857143</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>26.0857142857143</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>27.0857142857143</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="5" t="n">
         <v>45210</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>26.7142857142857</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>27.7142857142857</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>28.7142857142857</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="5" t="n">
         <v>45211</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>28.3428571428571</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>29.3428571428571</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>30.3428571428571</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="5" t="n">
         <v>45212</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>29.9714285714286</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>30.9714285714286</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>31.9714285714286</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="5" t="n">
         <v>45213</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>31.6</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>32.6</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>33.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>mouseID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>mouse_108</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>mouse_109</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>mouse_110</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>血液</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>55</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>105</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>肝脏</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>58</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>108</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>肠系膜</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>57</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>110</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="11.8888888888889"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cageID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>cage_28</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>cage_29</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>cage_30</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>cage_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
         <v>45200</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>101</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>102</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>103</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="5" t="n">
         <v>45201</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>105</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>106</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>107</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>45202</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>109</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>110</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>111</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>45203</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>113</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>114</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>115</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>45204</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>117</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>118</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>119</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>121</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>122</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>123</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="5" t="n">
         <v>45206</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>125</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>126</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>127</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="5" t="n">
         <v>45209</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>137</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>138</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>139</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="5" t="n">
         <v>45210</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>141</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>142</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
         <v>45211</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>145</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>146</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>147</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="5" t="n">
         <v>45212</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>149</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>150</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>151</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="5" t="n">
         <v>45213</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>153</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>154</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>155</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="5" t="n">
         <v>45214</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>157</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>158</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>159</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="5" t="n">
         <v>45215</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>161</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>162</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>163</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>165</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>166</v>
       </c>
-      <c r="D16"/>
-      <c r="E16">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>169</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>170</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>171</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>45218</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>173</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>174</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>175</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="5" t="n">
         <v>45219</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>177</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>178</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>179</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="5" t="n">
         <v>45220</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>181</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>182</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>183</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="5" t="n">
         <v>45221</v>
       </c>
-      <c r="B21"/>
-      <c r="C21">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>186</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>187</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="5" t="n">
         <v>45222</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>189</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>190</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>191</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="5" t="n">
         <v>45223</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>193</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>194</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>195</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="5" t="n">
         <v>45224</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>197</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>198</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>199</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="5" t="n">
         <v>45225</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>201</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>202</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>203</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="5" t="n">
         <v>45226</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>205</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>206</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>207</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="5" t="n">
         <v>45227</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>209</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>210</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>211</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="5" t="n">
         <v>45228</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>213</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>214</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>215</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="5" t="n">
         <v>45229</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>217</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>218</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>219</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="5" t="n">
         <v>45230</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>221</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>222</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>223</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="5" t="n">
         <v>45231</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>225</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>226</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>227</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="5" t="n">
         <v>45232</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>229</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>230</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>231</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>233</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>234</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>235</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="5" t="n">
         <v>45234</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>237</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>238</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>239</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="5" t="n">
         <v>45235</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>241</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>242</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>243</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="5" t="n">
         <v>45236</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>245</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>246</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>247</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="5" t="n">
         <v>45237</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>249</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>250</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>251</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="5" t="n">
         <v>45238</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>253</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>254</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>255</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>256</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>cageID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>cage_28</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>cage_29</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>cage_30</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>cage_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E2" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B3" t="n">
+        <v>58</v>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B7" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B10" t="n">
+        <v>55</v>
+      </c>
+      <c r="C10" t="n">
+        <v>56</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B11" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B12" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B14" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B15" t="n">
+        <v>48</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B16" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B17" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B18" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B19" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42</v>
+      </c>
+      <c r="D20" t="n">
+        <v>43</v>
+      </c>
+      <c r="E20" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B22" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B24" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>36</v>
+      </c>
+      <c r="E25" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B28" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B31" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B32" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B33" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B34" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21</v>
+      </c>
+      <c r="D35" t="n">
+        <v>22</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B37" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>